--- a/Tests/Home Page Unit Tests.xlsx
+++ b/Tests/Home Page Unit Tests.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Atech Computers Website Test Cases</t>
   </si>
@@ -114,16 +114,10 @@
 4) It will allow user to sign-in as user.</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Some Brands like philips is not listed under Brands in product search page.</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Not planned for this version</t>
+    <t>It is integrated in our current design but not implemented. It can be implemented in future Version.</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
   </si>
 </sst>
 </file>
@@ -856,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,10 +994,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1024,7 +1018,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="28"/>
       <c r="C10" s="10">
@@ -1038,10 +1032,10 @@
         <v>19</v>
       </c>
       <c r="G10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
